--- a/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-2,44%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,78</t>
+          <t>-3,01; 3,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,46</t>
+          <t>-2,53; 4,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,09</t>
+          <t>-4,87; 2,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -0,48</t>
+          <t>-13,24; 8,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,16</t>
+          <t>-3,11; 4,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,75</t>
+          <t>-2,64; 4,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,44</t>
+          <t>-5,06; 2,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -0,6</t>
+          <t>-14,09; 10,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-11,59%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,91</t>
+          <t>-3,74; 3,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,36</t>
+          <t>-3,19; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,4</t>
+          <t>-2,81; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 8,85</t>
+          <t>-27,01; -0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,2</t>
+          <t>-3,96; 4,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,74</t>
+          <t>-3,31; 3,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,57</t>
+          <t>-2,92; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 10,22</t>
+          <t>-28,16; -0,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,48</t>
+          <t>-15,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>-16,24%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 6,27</t>
+          <t>0,2; 12,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 2,3</t>
+          <t>-7,42; 1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,46</t>
+          <t>-4,32; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -0,96</t>
+          <t>-32,25; -2,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 7,21</t>
+          <t>0,43; 14,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,39</t>
+          <t>-7,61; 2,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,88</t>
+          <t>-4,5; 7,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -1,21</t>
+          <t>-33,04; -3,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-0,43%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,91</t>
+          <t>-4,19; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,36</t>
+          <t>-1,71; 3,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,4</t>
+          <t>-3,62; 3,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 8,85</t>
+          <t>-14,34; 12,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,2</t>
+          <t>-4,43; 3,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,74</t>
+          <t>-1,73; 4,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,57</t>
+          <t>-3,79; 3,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 10,22</t>
+          <t>-15,37; 15,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>-19,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-19,62%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,78</t>
+          <t>-6,32; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,46</t>
+          <t>-2,98; 5,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,09</t>
+          <t>-5,93; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -0,48</t>
+          <t>-42,81; -7,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,16</t>
+          <t>-6,58; 4,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,75</t>
+          <t>-3,12; 6,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,44</t>
+          <t>-6,1; 2,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -0,6</t>
+          <t>-43,17; -7,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,77%</t>
+          <t>-3,13%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,77</t>
+          <t>-4,7; 4,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,17</t>
+          <t>-4,41; 3,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,02</t>
+          <t>-3,62; 5,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -2,55</t>
+          <t>-15,92; 8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,02</t>
+          <t>-4,95; 4,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,31</t>
+          <t>-4,58; 4,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,17</t>
+          <t>-3,79; 6,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -2,88</t>
+          <t>-16,78; 9,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-9,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-9,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,09</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-18,05; -2,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 3,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 2,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,99; -2,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 12,13</t>
+          <t>-0,02; 12,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,96</t>
+          <t>-7,61; 2,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 6,32</t>
+          <t>-4,15; 6,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -2,93</t>
+          <t>-34,53; -3,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 14,43</t>
+          <t>-0,03; 14,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,07</t>
+          <t>-7,86; 2,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 7,07</t>
+          <t>-4,39; 7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,04; -3,1</t>
+          <t>-35,24; -4,27</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,95</t>
+          <t>-4,53; 2,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,88</t>
+          <t>-2,08; 3,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,27</t>
+          <t>-3,52; 3,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 12,64</t>
+          <t>-13,77; 11,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,21</t>
+          <t>-4,77; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,24</t>
+          <t>-2,17; 4,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,51</t>
+          <t>-3,66; 3,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 15,35</t>
+          <t>-14,48; 14,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,06</t>
+          <t>-6,56; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,93</t>
+          <t>-3,17; 6,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,56</t>
+          <t>-6,05; 2,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,81; -7,13</t>
+          <t>-41,85; -6,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,43</t>
+          <t>-6,77; 4,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,58</t>
+          <t>-3,35; 6,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 2,76</t>
+          <t>-6,29; 2,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,17; -7,4</t>
+          <t>-42,28; -7,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,31</t>
+          <t>-4,37; 4,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,97</t>
+          <t>-4,21; 4,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,49</t>
+          <t>-3,14; 5,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 8,05</t>
+          <t>-14,39; 8,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 4,7</t>
+          <t>-4,54; 5,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,3</t>
+          <t>-4,38; 4,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,08</t>
+          <t>-3,35; 6,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 9,22</t>
+          <t>-15,13; 9,89</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,09</t>
+          <t>-1,67; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,14</t>
+          <t>-1,93; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,01</t>
+          <t>-2,14; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -2,68</t>
+          <t>-18,91; -2,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,38</t>
+          <t>-1,78; 2,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,29</t>
+          <t>-2,02; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,14</t>
+          <t>-2,26; 2,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -2,96</t>
+          <t>-20,13; -2,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,88</t>
+          <t>-15,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,24%</t>
+          <t>-16,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 12,07</t>
+          <t>0,29; 11,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,11</t>
+          <t>-7,29; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,47</t>
+          <t>-4,05; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -3,92</t>
+          <t>-33,5; -3,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 14,26</t>
+          <t>0,32; 13,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 2,32</t>
+          <t>-7,51; 2,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 7,19</t>
+          <t>-4,27; 6,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,24; -4,27</t>
+          <t>-33,65; -3,33</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 2,77</t>
+          <t>-4,28; 3,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,89</t>
+          <t>-2,16; 3,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,44</t>
+          <t>-3,83; 3,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 11,62</t>
+          <t>-10,85; 14,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,0</t>
+          <t>-4,49; 3,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,18</t>
+          <t>-2,22; 4,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,69</t>
+          <t>-3,96; 3,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 14,44</t>
+          <t>-11,68; 18,89</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,32</t>
+          <t>-21,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,62%</t>
+          <t>-21,94%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 3,88</t>
+          <t>-6,12; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,02</t>
+          <t>-3,31; 6,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,07</t>
+          <t>-5,7; 2,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,85; -6,88</t>
+          <t>-49,07; -8,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,24</t>
+          <t>-6,4; 4,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,71</t>
+          <t>-3,49; 6,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,23</t>
+          <t>-5,94; 2,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,28; -7,15</t>
+          <t>-49,48; -8,37</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>-3,43%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,67</t>
+          <t>-4,6; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,14</t>
+          <t>-3,98; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,88</t>
+          <t>-3,48; 6,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 8,77</t>
+          <t>-14,94; 7,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,08</t>
+          <t>-4,84; 4,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 4,44</t>
+          <t>-4,15; 4,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,5</t>
+          <t>-3,64; 6,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 9,89</t>
+          <t>-15,78; 8,85</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-9,77%</t>
+          <t>-10,59%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,7</t>
+          <t>-2,01; 2,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,0</t>
+          <t>-1,82; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,09</t>
+          <t>-2,11; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,91; -2,53</t>
+          <t>-19,48; -3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,96</t>
+          <t>-2,14; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,14</t>
+          <t>-1,91; 2,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,23</t>
+          <t>-2,22; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -2,75</t>
+          <t>-20,8; -3,64</t>
         </is>
       </c>
     </row>
